--- a/whatsapp/Customer and Group Leader Mapping.xlsx
+++ b/whatsapp/Customer and Group Leader Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legof\Downloads\WDP-AI-2025-main (1)\WDP-AI-2025-main\whatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legof\Downloads\WDP-WS-AI-2025\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FB67E-2C0D-4868-85FA-0F0073A256FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC4F54-7233-42DA-9559-E955E02946F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2060" windowWidth="14400" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer and Group Leader Mappi" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>6591540822</v>
+        <v>6599991111</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>

--- a/whatsapp/Customer and Group Leader Mapping.xlsx
+++ b/whatsapp/Customer and Group Leader Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legof\Downloads\WDP-WS-AI-2025\whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC4F54-7233-42DA-9559-E955E02946F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195C448D-304A-4A21-9B24-DAD8A120ED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2060" windowWidth="14400" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1340" windowWidth="14400" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer and Group Leader Mappi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Customer ID</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>CUST206</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>LDR03</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -408,12 +414,22 @@
         <v>46007</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6591540822</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>46008</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
